--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3275.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3275.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9733367996804454</v>
+        <v>1.757764577865601</v>
       </c>
       <c r="B1">
-        <v>1.448157452333213</v>
+        <v>3.787448406219482</v>
       </c>
       <c r="C1">
-        <v>3.05603098441077</v>
+        <v>1.940144777297974</v>
       </c>
       <c r="D1">
-        <v>4.788680172625466</v>
+        <v>1.341444969177246</v>
       </c>
       <c r="E1">
-        <v>1.530191996872404</v>
+        <v>1.135859489440918</v>
       </c>
     </row>
   </sheetData>
